--- a/uploads/TEST RESULTS - Log To Excel.xlsx
+++ b/uploads/TEST RESULTS - Log To Excel.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranjal\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C04E68A-B3A6-4E10-A1C9-4B7665540305}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="81">
   <si>
     <t>PCB No.</t>
   </si>
@@ -257,13 +263,16 @@
   </si>
   <si>
     <t>3P0918040463</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -352,12 +361,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -404,7 +427,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -436,9 +459,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -470,6 +511,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -645,12 +704,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AA17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6:X12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" customWidth="1"/>
@@ -658,65 +719,65 @@
     <col min="27" max="27" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27" ht="30" customHeight="1">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
       <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="1"/>
+      <c r="L2" s="5"/>
       <c r="M2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
       <c r="S2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="1"/>
+      <c r="V2" s="5"/>
       <c r="W2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Y2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
     </row>
-    <row r="3" spans="1:27" ht="45" customHeight="1">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
@@ -780,10 +841,10 @@
       <c r="V3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="W3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="X3" s="6" t="s">
         <v>35</v>
       </c>
       <c r="Y3" s="2" t="s">
@@ -792,12 +853,12 @@
       <c r="Z3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AA3" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
@@ -861,18 +922,18 @@
       <c r="V4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
       <c r="Y4" s="2" t="s">
         <v>59</v>
       </c>
       <c r="Z4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AA4" s="2"/>
+      <c r="AA4" s="6"/>
     </row>
-    <row r="5" spans="1:27">
-      <c r="A5" s="1"/>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
       <c r="B5" s="2" t="s">
         <v>60</v>
       </c>
@@ -936,31 +997,31 @@
       <c r="V5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
       <c r="Y5" s="2" t="s">
         <v>61</v>
       </c>
       <c r="Z5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AA5" s="2"/>
+      <c r="AA5" s="6"/>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B6" s="3">
-        <v>8.195</v>
+        <v>8.1950000000000003</v>
       </c>
       <c r="C6" s="3">
-        <v>5.825</v>
+        <v>5.8250000000000002</v>
       </c>
       <c r="D6" s="3">
-        <v>631.592</v>
+        <v>631.59199999999998</v>
       </c>
       <c r="E6" s="3">
-        <v>14.649</v>
+        <v>14.648999999999999</v>
       </c>
       <c r="F6" s="3">
         <v>74</v>
@@ -972,7 +1033,7 @@
         <v>7.694</v>
       </c>
       <c r="I6" s="3">
-        <v>1.066</v>
+        <v>1.0660000000000001</v>
       </c>
       <c r="J6" s="3">
         <v>727</v>
@@ -990,16 +1051,16 @@
         <v>58</v>
       </c>
       <c r="O6" s="3">
-        <v>-14.316</v>
+        <v>-14.316000000000001</v>
       </c>
       <c r="P6" s="3">
         <v>4</v>
       </c>
       <c r="Q6" s="3">
-        <v>5.506</v>
+        <v>5.5060000000000002</v>
       </c>
       <c r="R6" s="3">
-        <v>2.628</v>
+        <v>2.6280000000000001</v>
       </c>
       <c r="S6" s="3">
         <v>531</v>
@@ -1011,36 +1072,36 @@
         <v>1</v>
       </c>
       <c r="V6" s="3">
-        <v>-7.243</v>
+        <v>-7.2430000000000003</v>
       </c>
       <c r="W6" s="3" t="s">
         <v>67</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="Y6" s="3">
-        <v>0.07099999999999999</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="Z6" s="3">
-        <v>5.825</v>
+        <v>5.8250000000000002</v>
       </c>
       <c r="AA6" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B7" s="3">
-        <v>8.238</v>
+        <v>8.2379999999999995</v>
       </c>
       <c r="C7" s="3">
         <v>5.835</v>
       </c>
       <c r="D7" s="3">
-        <v>626.9640000000001</v>
+        <v>626.96400000000006</v>
       </c>
       <c r="E7" s="3">
         <v>14.788</v>
@@ -1079,10 +1140,10 @@
         <v>4</v>
       </c>
       <c r="Q7" s="3">
-        <v>5.522</v>
+        <v>5.5220000000000002</v>
       </c>
       <c r="R7" s="3">
-        <v>2.638</v>
+        <v>2.6379999999999999</v>
       </c>
       <c r="S7" s="3">
         <v>543</v>
@@ -1094,25 +1155,25 @@
         <v>1</v>
       </c>
       <c r="V7" s="3">
-        <v>-7.251</v>
+        <v>-7.2510000000000003</v>
       </c>
       <c r="W7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="Y7" s="3">
-        <v>0.074</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="Z7" s="3">
-        <v>5.842</v>
+        <v>5.8419999999999996</v>
       </c>
       <c r="AA7" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>70</v>
       </c>
@@ -1120,22 +1181,22 @@
         <v>8.548</v>
       </c>
       <c r="C8" s="3">
-        <v>5.832</v>
+        <v>5.8319999999999999</v>
       </c>
       <c r="D8" s="3">
-        <v>624.104</v>
+        <v>624.10400000000004</v>
       </c>
       <c r="E8" s="3">
-        <v>14.479</v>
+        <v>14.478999999999999</v>
       </c>
       <c r="F8" s="3">
         <v>74</v>
       </c>
       <c r="G8" s="3">
-        <v>51.998</v>
+        <v>51.997999999999998</v>
       </c>
       <c r="H8" s="3">
-        <v>7.711</v>
+        <v>7.7110000000000003</v>
       </c>
       <c r="I8" s="3">
         <v>1.036</v>
@@ -1144,7 +1205,7 @@
         <v>720</v>
       </c>
       <c r="K8" s="3">
-        <v>16.011</v>
+        <v>16.010999999999999</v>
       </c>
       <c r="L8" s="3">
         <v>2.15</v>
@@ -1162,31 +1223,31 @@
         <v>4</v>
       </c>
       <c r="Q8" s="3">
-        <v>5.511</v>
+        <v>5.5110000000000001</v>
       </c>
       <c r="R8" s="3">
-        <v>2.643</v>
+        <v>2.6429999999999998</v>
       </c>
       <c r="S8" s="3">
         <v>530</v>
       </c>
       <c r="T8" s="3">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="U8" s="3">
         <v>1</v>
       </c>
       <c r="V8" s="3">
-        <v>-7.255</v>
+        <v>-7.2549999999999999</v>
       </c>
       <c r="W8" s="3" t="s">
         <v>67</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="Y8" s="3">
-        <v>0.07099999999999999</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="Z8" s="3">
         <v>5.835</v>
@@ -1195,18 +1256,18 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B9" s="3">
-        <v>8.307</v>
+        <v>8.3070000000000004</v>
       </c>
       <c r="C9" s="3">
-        <v>5.815</v>
+        <v>5.8150000000000004</v>
       </c>
       <c r="D9" s="3">
-        <v>629.832</v>
+        <v>629.83199999999999</v>
       </c>
       <c r="E9" s="3">
         <v>14.94</v>
@@ -1218,22 +1279,22 @@
         <v>51.116</v>
       </c>
       <c r="H9" s="3">
-        <v>7.685</v>
+        <v>7.6849999999999996</v>
       </c>
       <c r="I9" s="3">
-        <v>1.041</v>
+        <v>1.0409999999999999</v>
       </c>
       <c r="J9" s="3">
         <v>725</v>
       </c>
       <c r="K9" s="3">
-        <v>15.998</v>
+        <v>15.997999999999999</v>
       </c>
       <c r="L9" s="3">
         <v>2.16</v>
       </c>
       <c r="M9" s="3">
-        <v>2.905</v>
+        <v>2.9049999999999998</v>
       </c>
       <c r="N9" s="3">
         <v>64</v>
@@ -1245,7 +1306,7 @@
         <v>4</v>
       </c>
       <c r="Q9" s="3">
-        <v>5.498</v>
+        <v>5.4980000000000002</v>
       </c>
       <c r="R9" s="3">
         <v>2.637</v>
@@ -1260,36 +1321,36 @@
         <v>1</v>
       </c>
       <c r="V9" s="3">
-        <v>-7.268</v>
+        <v>-7.2679999999999998</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>67</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="Y9" s="3">
-        <v>0.07199999999999999</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="Z9" s="3">
-        <v>5.821</v>
+        <v>5.8209999999999997</v>
       </c>
       <c r="AA9" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B10" s="3">
-        <v>8.256</v>
+        <v>8.2560000000000002</v>
       </c>
       <c r="C10" s="3">
-        <v>5.836</v>
+        <v>5.8360000000000003</v>
       </c>
       <c r="D10" s="3">
-        <v>626.442</v>
+        <v>626.44200000000001</v>
       </c>
       <c r="E10" s="3">
         <v>14.87</v>
@@ -1298,46 +1359,46 @@
         <v>74</v>
       </c>
       <c r="G10" s="3">
-        <v>52.158</v>
+        <v>52.158000000000001</v>
       </c>
       <c r="H10" s="3">
-        <v>7.683</v>
+        <v>7.6829999999999998</v>
       </c>
       <c r="I10" s="3">
-        <v>1.039</v>
+        <v>1.0389999999999999</v>
       </c>
       <c r="J10" s="3">
         <v>722</v>
       </c>
       <c r="K10" s="3">
-        <v>16.039</v>
+        <v>16.039000000000001</v>
       </c>
       <c r="L10" s="3">
         <v>2.16</v>
       </c>
       <c r="M10" s="3">
-        <v>2.902</v>
+        <v>2.9020000000000001</v>
       </c>
       <c r="N10" s="3">
         <v>60</v>
       </c>
       <c r="O10" s="3">
-        <v>-14.424</v>
+        <v>-14.423999999999999</v>
       </c>
       <c r="P10" s="3">
         <v>4</v>
       </c>
       <c r="Q10" s="3">
-        <v>5.515</v>
+        <v>5.5149999999999997</v>
       </c>
       <c r="R10" s="3">
-        <v>2.635</v>
+        <v>2.6349999999999998</v>
       </c>
       <c r="S10" s="3">
         <v>531</v>
       </c>
       <c r="T10" s="3">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="U10" s="3">
         <v>1</v>
@@ -1349,33 +1410,33 @@
         <v>67</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="Y10" s="3">
-        <v>0.075</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="Z10" s="3">
-        <v>5.839</v>
+        <v>5.8390000000000004</v>
       </c>
       <c r="AA10" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B11" s="3">
-        <v>8.244</v>
+        <v>8.2439999999999998</v>
       </c>
       <c r="C11" s="3">
-        <v>5.852</v>
+        <v>5.8520000000000003</v>
       </c>
       <c r="D11" s="3">
-        <v>629.648</v>
+        <v>629.64800000000002</v>
       </c>
       <c r="E11" s="3">
-        <v>14.799</v>
+        <v>14.798999999999999</v>
       </c>
       <c r="F11" s="3">
         <v>70</v>
@@ -1384,10 +1445,10 @@
         <v>50.59</v>
       </c>
       <c r="H11" s="3">
-        <v>7.706</v>
+        <v>7.7060000000000004</v>
       </c>
       <c r="I11" s="3">
-        <v>1.059</v>
+        <v>1.0589999999999999</v>
       </c>
       <c r="J11" s="3">
         <v>725</v>
@@ -1399,7 +1460,7 @@
         <v>2.16</v>
       </c>
       <c r="M11" s="3">
-        <v>2.905</v>
+        <v>2.9049999999999998</v>
       </c>
       <c r="N11" s="3">
         <v>58</v>
@@ -1414,7 +1475,7 @@
         <v>5.532</v>
       </c>
       <c r="R11" s="3">
-        <v>2.623</v>
+        <v>2.6230000000000002</v>
       </c>
       <c r="S11" s="3">
         <v>531</v>
@@ -1426,48 +1487,48 @@
         <v>1</v>
       </c>
       <c r="V11" s="3">
-        <v>-7.268</v>
+        <v>-7.2679999999999998</v>
       </c>
       <c r="W11" s="3" t="s">
         <v>67</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="Y11" s="3">
-        <v>0.074</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="Z11" s="3">
-        <v>5.854</v>
+        <v>5.8540000000000001</v>
       </c>
       <c r="AA11" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B12" s="3">
-        <v>8.241</v>
+        <v>8.2409999999999997</v>
       </c>
       <c r="C12" s="3">
-        <v>5.844</v>
+        <v>5.8440000000000003</v>
       </c>
       <c r="D12" s="3">
-        <v>632.074</v>
+        <v>632.07399999999996</v>
       </c>
       <c r="E12" s="3">
-        <v>15.117</v>
+        <v>15.117000000000001</v>
       </c>
       <c r="F12" s="3">
         <v>68</v>
       </c>
       <c r="G12" s="3">
-        <v>50.714</v>
+        <v>50.713999999999999</v>
       </c>
       <c r="H12" s="3">
-        <v>7.692</v>
+        <v>7.6920000000000002</v>
       </c>
       <c r="I12" s="3">
         <v>1.052</v>
@@ -1476,28 +1537,28 @@
         <v>727</v>
       </c>
       <c r="K12" s="3">
-        <v>16.059</v>
+        <v>16.059000000000001</v>
       </c>
       <c r="L12" s="3">
         <v>2.16</v>
       </c>
       <c r="M12" s="3">
-        <v>2.908</v>
+        <v>2.9079999999999999</v>
       </c>
       <c r="N12" s="3">
         <v>56</v>
       </c>
       <c r="O12" s="3">
-        <v>-14.854</v>
+        <v>-14.853999999999999</v>
       </c>
       <c r="P12" s="3">
         <v>4</v>
       </c>
       <c r="Q12" s="3">
-        <v>5.528</v>
+        <v>5.5279999999999996</v>
       </c>
       <c r="R12" s="3">
-        <v>2.656</v>
+        <v>2.6560000000000001</v>
       </c>
       <c r="S12" s="3">
         <v>521</v>
@@ -1509,16 +1570,16 @@
         <v>1</v>
       </c>
       <c r="V12" s="3">
-        <v>-7.276</v>
+        <v>-7.2759999999999998</v>
       </c>
       <c r="W12" s="3" t="s">
         <v>67</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="Y12" s="3">
-        <v>0.075</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="Z12" s="3">
         <v>5.851</v>
@@ -1527,18 +1588,18 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B13" s="3">
-        <v>8.334</v>
+        <v>8.3339999999999996</v>
       </c>
       <c r="C13" s="3">
-        <v>5.831</v>
+        <v>5.8310000000000004</v>
       </c>
       <c r="D13" s="3">
-        <v>628.332</v>
+        <v>628.33199999999999</v>
       </c>
       <c r="E13" s="3">
         <v>14.565</v>
@@ -1547,31 +1608,31 @@
         <v>74</v>
       </c>
       <c r="G13" s="3">
-        <v>52.358</v>
+        <v>52.357999999999997</v>
       </c>
       <c r="H13" s="3">
-        <v>7.709</v>
+        <v>7.7089999999999996</v>
       </c>
       <c r="I13" s="3">
-        <v>1.043</v>
+        <v>1.0429999999999999</v>
       </c>
       <c r="J13" s="3">
         <v>724</v>
       </c>
       <c r="K13" s="3">
-        <v>16.048</v>
+        <v>16.047999999999998</v>
       </c>
       <c r="L13" s="3">
         <v>2.16</v>
       </c>
       <c r="M13" s="3">
-        <v>2.904</v>
+        <v>2.9039999999999999</v>
       </c>
       <c r="N13" s="3">
         <v>58</v>
       </c>
       <c r="O13" s="3">
-        <v>-15.495</v>
+        <v>-15.494999999999999</v>
       </c>
       <c r="P13" s="3">
         <v>4</v>
@@ -1592,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="V13" s="3">
-        <v>-7.284</v>
+        <v>-7.2839999999999998</v>
       </c>
       <c r="W13" s="3" t="s">
         <v>67</v>
@@ -1601,27 +1662,27 @@
         <v>67</v>
       </c>
       <c r="Y13" s="3">
-        <v>0.07099999999999999</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="Z13" s="3">
-        <v>5.832</v>
+        <v>5.8319999999999999</v>
       </c>
       <c r="AA13" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B14" s="3">
-        <v>8.324999999999999</v>
+        <v>8.3249999999999993</v>
       </c>
       <c r="C14" s="3">
-        <v>5.831</v>
+        <v>5.8310000000000004</v>
       </c>
       <c r="D14" s="3">
-        <v>627.204</v>
+        <v>627.20399999999995</v>
       </c>
       <c r="E14" s="3">
         <v>15.073</v>
@@ -1630,10 +1691,10 @@
         <v>70</v>
       </c>
       <c r="G14" s="3">
-        <v>51.908</v>
+        <v>51.908000000000001</v>
       </c>
       <c r="H14" s="3">
-        <v>7.662</v>
+        <v>7.6619999999999999</v>
       </c>
       <c r="I14" s="3">
         <v>1.024</v>
@@ -1660,10 +1721,10 @@
         <v>4</v>
       </c>
       <c r="Q14" s="3">
-        <v>5.509</v>
+        <v>5.5090000000000003</v>
       </c>
       <c r="R14" s="3">
-        <v>2.659</v>
+        <v>2.6589999999999998</v>
       </c>
       <c r="S14" s="3">
         <v>541</v>
@@ -1675,7 +1736,7 @@
         <v>1</v>
       </c>
       <c r="V14" s="3">
-        <v>-7.276</v>
+        <v>-7.2759999999999998</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>67</v>
@@ -1684,27 +1745,27 @@
         <v>67</v>
       </c>
       <c r="Y14" s="3">
-        <v>0.07199999999999999</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="Z14" s="3">
-        <v>5.833</v>
+        <v>5.8330000000000002</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B15" s="3">
-        <v>8.311</v>
+        <v>8.3109999999999999</v>
       </c>
       <c r="C15" s="3">
-        <v>5.838</v>
+        <v>5.8380000000000001</v>
       </c>
       <c r="D15" s="3">
-        <v>626.802</v>
+        <v>626.80200000000002</v>
       </c>
       <c r="E15" s="3">
         <v>14.78</v>
@@ -1713,10 +1774,10 @@
         <v>70</v>
       </c>
       <c r="G15" s="3">
-        <v>51.202</v>
+        <v>51.201999999999998</v>
       </c>
       <c r="H15" s="3">
-        <v>7.687</v>
+        <v>7.6870000000000003</v>
       </c>
       <c r="I15" s="3">
         <v>1.052</v>
@@ -1725,13 +1786,13 @@
         <v>721</v>
       </c>
       <c r="K15" s="3">
-        <v>16.037</v>
+        <v>16.036999999999999</v>
       </c>
       <c r="L15" s="3">
         <v>2.16</v>
       </c>
       <c r="M15" s="3">
-        <v>2.902</v>
+        <v>2.9020000000000001</v>
       </c>
       <c r="N15" s="3">
         <v>58</v>
@@ -1743,10 +1804,10 @@
         <v>4</v>
       </c>
       <c r="Q15" s="3">
-        <v>5.518</v>
+        <v>5.5179999999999998</v>
       </c>
       <c r="R15" s="3">
-        <v>2.646</v>
+        <v>2.6459999999999999</v>
       </c>
       <c r="S15" s="3">
         <v>521</v>
@@ -1758,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="V15" s="3">
-        <v>-7.253</v>
+        <v>-7.2530000000000001</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>67</v>
@@ -1767,42 +1828,42 @@
         <v>67</v>
       </c>
       <c r="Y15" s="3">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Z15" s="3">
-        <v>5.848</v>
+        <v>5.8479999999999999</v>
       </c>
       <c r="AA15" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B16" s="3">
-        <v>8.385</v>
+        <v>8.3849999999999998</v>
       </c>
       <c r="C16" s="3">
-        <v>5.836</v>
+        <v>5.8360000000000003</v>
       </c>
       <c r="D16" s="3">
         <v>626.21</v>
       </c>
       <c r="E16" s="3">
-        <v>14.937</v>
+        <v>14.936999999999999</v>
       </c>
       <c r="F16" s="3">
         <v>68</v>
       </c>
       <c r="G16" s="3">
-        <v>50.614</v>
+        <v>50.613999999999997</v>
       </c>
       <c r="H16" s="3">
-        <v>7.692</v>
+        <v>7.6920000000000002</v>
       </c>
       <c r="I16" s="3">
-        <v>1.065</v>
+        <v>1.0649999999999999</v>
       </c>
       <c r="J16" s="3">
         <v>720</v>
@@ -1814,7 +1875,7 @@
         <v>2.16</v>
       </c>
       <c r="M16" s="3">
-        <v>2.902</v>
+        <v>2.9020000000000001</v>
       </c>
       <c r="N16" s="3">
         <v>52</v>
@@ -1829,7 +1890,7 @@
         <v>5.51</v>
       </c>
       <c r="R16" s="3">
-        <v>2.651</v>
+        <v>2.6509999999999998</v>
       </c>
       <c r="S16" s="3">
         <v>522</v>
@@ -1841,39 +1902,39 @@
         <v>1</v>
       </c>
       <c r="V16" s="3">
-        <v>-7.245</v>
+        <v>-7.2450000000000001</v>
       </c>
       <c r="W16" s="3" t="s">
         <v>67</v>
       </c>
       <c r="X16" s="4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="Y16" s="3">
-        <v>0.07199999999999999</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="Z16" s="3">
-        <v>5.834</v>
+        <v>5.8339999999999996</v>
       </c>
       <c r="AA16" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B17" s="3">
-        <v>8.276</v>
+        <v>8.2759999999999998</v>
       </c>
       <c r="C17" s="3">
-        <v>5.828</v>
+        <v>5.8280000000000003</v>
       </c>
       <c r="D17" s="3">
-        <v>627.792</v>
+        <v>627.79200000000003</v>
       </c>
       <c r="E17" s="3">
-        <v>14.652</v>
+        <v>14.651999999999999</v>
       </c>
       <c r="F17" s="3">
         <v>70</v>
@@ -1882,16 +1943,16 @@
         <v>50.56</v>
       </c>
       <c r="H17" s="3">
-        <v>7.807</v>
+        <v>7.8070000000000004</v>
       </c>
       <c r="I17" s="3">
-        <v>1.078</v>
+        <v>1.0780000000000001</v>
       </c>
       <c r="J17" s="3">
         <v>723</v>
       </c>
       <c r="K17" s="3">
-        <v>16.117</v>
+        <v>16.117000000000001</v>
       </c>
       <c r="L17" s="3">
         <v>2.16</v>
@@ -1903,13 +1964,13 @@
         <v>58</v>
       </c>
       <c r="O17" s="3">
-        <v>-14.713</v>
+        <v>-14.712999999999999</v>
       </c>
       <c r="P17" s="3">
         <v>4</v>
       </c>
       <c r="Q17" s="3">
-        <v>5.513</v>
+        <v>5.5129999999999999</v>
       </c>
       <c r="R17" s="3">
         <v>2.653</v>
@@ -1924,19 +1985,19 @@
         <v>1</v>
       </c>
       <c r="V17" s="3">
-        <v>-7.267</v>
+        <v>-7.2670000000000003</v>
       </c>
       <c r="W17" s="3" t="s">
         <v>67</v>
       </c>
       <c r="X17" s="4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="Y17" s="3">
-        <v>0.07099999999999999</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="Z17" s="3">
-        <v>5.836</v>
+        <v>5.8360000000000003</v>
       </c>
       <c r="AA17" s="3" t="s">
         <v>68</v>
@@ -1944,17 +2005,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="K2:L2"/>
     <mergeCell ref="N2:R2"/>
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="W3:W5"/>
     <mergeCell ref="X3:X5"/>
     <mergeCell ref="AA3:AA5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
